--- a/results/2014年第2季.xlsx
+++ b/results/2014年第2季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,7588 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>136</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>420,977</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>354,001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77,529</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>68,739</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>123,338</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1,669</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2,679</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>119,027</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>552,315</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,397,497</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,098,165</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,821,522</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,205,944</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,618,600</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,322,843</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,150,088</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-479,241</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>186,580</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,793,564</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>8,007,011</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,592,760</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>32,758,057</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,214,316</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>872,079</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>514,810</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>449,083</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>563,060</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>242,040</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1,513,940</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>339,305</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>21,941,923</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>15,900,789</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>43,197,022</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,087,878</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,461,797</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>941,520</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>786,978</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>336,297</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-19,076</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1,316,009</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>331,157</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7,428,842</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,559,210</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22,019,747</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>228,515</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>127,561</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83,462</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>69,151</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>47,730</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-4,644</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>41,479</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>255,495</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>19,193</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>959,801</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>158</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13,641,623</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,520,089</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>920,678</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>748,695</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>698,655</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-4,148,691</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>817,373</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>388,702</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>22,156,748</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,095,045</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>40,318,062</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,576</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-18,860</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-58,834</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>39,261</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-62,034</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>125,545</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>91,490</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,244,645</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,461,166</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>861,740</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>569,030</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>439,876</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>557,139</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-410,506</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7,885</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>426,416</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7,705,212</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>12,144,236</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>22,286,581</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>993,745</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>136,895</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24,706</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2,886</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-18,393</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-41,931</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-329,914</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-49,929</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,597,336</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>761,504</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2,805,531</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,337,378</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>993,800</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>689,926</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>476,583</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,050,922</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,915,941</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-452,839</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>716,172</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>17,196,548</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>13,011,326</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>39,154,301</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,309,282</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>512,087</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>224,898</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>185,966</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>17,797</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-130,506</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>162,880</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-118,276</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,277,407</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2,770,163</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,100,843</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,028,084</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-303,036</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-602,271</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-501,824</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-86,805</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-112,119</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-280,618</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-404,342</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>12,965,658</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>18,338,544</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>44,037,985</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>310,082</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>75,252</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5,014</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8,585</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6,060</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-26,560</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>22,192</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>613,426</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>590,766</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,382,492</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>215</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14,246,531</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,220,710</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>477,932</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>443,698</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,398,182</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-525,839</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-11,973</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>896,346</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18,608,855</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,982,984</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>22,907,403</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>423,361</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>75,066</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5,442</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1,832</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-29,976</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-120,182</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>101,114</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-176,867</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,576,156</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,362,769</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,696,952</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,474,998</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>473,719</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>338,113</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>307,185</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>677,434</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-2,116,121</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>410,094</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-765,567</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5,204,395</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,249,604</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,707,125</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3,040,184</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>864,266</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>236,862</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>143,568</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>327,052</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>37,407</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-343,568</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>303,407</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5,740,400</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>768,924</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>12,510,643</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>245,909</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>77,770</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>669,415</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,325,725</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>310,027</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>181,297</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>169,604</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-418,109</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-217,295</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>758,544</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-630,494</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,762,661</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,668,332</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>7,954,961</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>368,549</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>89,697</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30,373</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9,064</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>43,496</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-51,597</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>9,221</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-8,127</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>945,978</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>676,331</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,896,580</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>108,879</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>169,627</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>401,001</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>72,359</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>46,894</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-10,026</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-12,191</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>25,821</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-12,664</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,509</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>23,412</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>110,079</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>107,910</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>569,873</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>522,977</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>93,604</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50,982</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>40,888</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>65,473</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-67,196</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>24,899</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-2,184</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>612,715</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>991,796</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2,438,358</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>95</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>910,471</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>447,369</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>132,760</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>109,541</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-131,419</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-124,804</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>49,517</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-193,006</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2,056,915</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1,682,303</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5,308,252</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7,468,549</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>393,353</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43,082</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>69,197</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>196,527</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>33,543</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-252,772</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>183,563</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4,331,895</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,884,710</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8,429,367</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7,565,880</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>497,287</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20,677</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>417,831</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-1,998,030</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-1,462,313</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3,640,953</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-2,051,336</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>14,597,223</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,603,745</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>23,240,805</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>7,151</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>4,675</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>834,895</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,366,292</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>165,476</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58,842</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>80,249</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-383,694</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-369,348</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>150,466</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-722,168</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>12,449,126</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,607,005</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>25,868,665</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>821,698</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>203,336</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80,046</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>112,500</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>89,040</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>48,200</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-41,306</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>63,587</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>748,291</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>909,104</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2,359,203</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>922,394</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>248,706</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>139,731</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>103,600</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>31,628</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-8,268</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-568</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>24,281</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,210,604</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>213,678</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1,795,055</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10,404,545</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,585,712</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-44,615</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>251,610</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-35,541</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-165,260</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15,897</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-242,154</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,298,586</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,660,566</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,630,415</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>181,631</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8,977</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-1,257</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-3,179</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>31,798</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-22,905</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>31,195</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>243,992</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>381,267</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,878,316</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>96,882</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>7,411</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>277,959</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>92,161,647</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10,423,424</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6,954,097</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5,695,341</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>22,186,368</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-10,656,202</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-2,988,062</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>14,294,654</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>376,938,994</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>459,432,242</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>694,045,827</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2,005,332</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-37,521</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-92,714</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-129,587</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>24,717</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-81,686</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>114,243</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-12,359</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>8,769,787</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.82</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,048,928</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>13,294,517</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>967,627</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-1,918</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-21,086</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>165,300</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-126,825</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-5,878</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>162,221</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-131,591</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,914,747</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1,013,491</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>6,182,848</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>400,791</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>242,615</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71,499</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>59,932</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>52,495</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-25,122</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>30,117</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>984,137</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>681,834</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,732,554</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>954,476</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>281,993</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>218,862</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>215,442</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>348,735</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2,340</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-164,086</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>348,273</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2,934,983</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>27,283</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>5,198,715</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>249,448</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>45,815</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3,757</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2,629</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>103,986</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-5,908</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-108,689</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>99,831</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>490,078</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>454,363</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,255,771</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>397,258</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>66,154</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16,457</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>12,517</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33,553</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-3,881</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-106,113</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>32,807</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>426,741</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>296,519</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,699,487</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,268,108</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>897,313</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,885,038</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>903,902</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13,482</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-128,413</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-161,446</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-331,173</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-221,150</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-1,030</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-510,860</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,616,887</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-5.45</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>848,093</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4,466,887</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>400,298</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>67,072</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16,179</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7,069</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-4,157</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-12,032</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>52,379</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-55,396</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,040,945</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>556,810</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,029,170</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7,384,987</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2,220,875</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>363,021</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>139,438</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>280,147</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-244,999</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>759,981</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>34,095</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28,547,093</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>14,159,485</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>40,285,154</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,103,520</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>333,035</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-113,764</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-155,173</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-201,990</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-138,697</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>320,788</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-305,593</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>7,921,248</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-2.60</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4,750,401</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>14,206,725</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>53</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>105,823,040</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>34,082,310</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5,147,656</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4,868,196</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>9,087,969</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-1,254,867</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1,599,812</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1,003,178</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>253,629,496</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>153,073,561</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>391,600,479</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,794,119</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-283,095</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-787,864</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1,019,335</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>26,156</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-182,082</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-276,430</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-62,476</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>13,262,549</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-4.13</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>22,043,819</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>37,231,230</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,963,074</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>114,321</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-371,858</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-446,514</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1,091,208</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-226,668</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-556,159</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1,071,000</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10,593,440</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.53</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>23,467,802</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>39,434,469</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>111,064,490</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11,804,227</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>6,366,373</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3,010,092</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>31,085,950</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-5,839,931</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-35,896,652</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>26,417,988</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>268,249,389</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>250,192,047</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>464,858,842</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>11,916,423</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5,220,022</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4,242,808</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6,085,007</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5,935,106</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-546,227</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-4,997,639</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>5,450,152</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>74,924,645</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>48,633,769</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>99,325,524</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>937,289</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>169,047</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80,625</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9,471</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-138,954</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-44,983</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-115,536</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-138,896</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,746,587</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3,163,431</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>10,929,218</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>93</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>879,094,312</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>61,990,039</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27,931,770</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>20,625,501</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-73,675,833</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-956,919</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-103,011,288</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-77,743,769</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,133,275,904</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>344,836,040</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>1,968,986,249</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3,564,826</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>301,203</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>144,944</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>135,101</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>785,724</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-228,602</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-265,124</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>689,227</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>10,440,160</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,429,319</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>19,127,777</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>28</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10,604,931</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,361,725</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>564,251</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>436,146</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,026,023</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-1,137,390</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>356,616</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>482,028</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>70,731,549</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>51,861,561</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>106,823,902</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,063,799</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>741,730</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>360,711</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-667,071</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-295,284</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2,707,511</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-554,134</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-301,887</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>22,165,978</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>-0.63</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3,410,271</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>126,306,050</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>179,157</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>29,807</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14,248</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>22,548</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-44,254</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-274</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-43,834</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>245,823</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>426,455</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,449,095</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,492,911</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,075,384</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>852,055</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>628,683</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>121,090</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-140,013</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>215,918</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-249,598</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>26,474,754</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>13,259,957</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>45,895,779</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>32,693,536</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8,811,705</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5,168,982</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,417,953</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>7,457,074</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,422,092</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>877,845</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4,538,135</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>93,861,170</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>103,968,019</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>169,549,748</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>55,784,235</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,747,862</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12,328,653</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10,696,369</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>14,416,476</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-6,321,986</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1,125,300</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>7,094,618</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>104,397,058</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>298,533,250</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>454,678,646</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,996,966</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>862,615</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>171,370</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>96,786</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>420,451</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-1,693,004</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1,427,260</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>416,523</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>9,249,599</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,252,687</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>18,460,833</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1,984,617</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1,440,726</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1,281,371</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1,181,978</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1,345,804</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>17,399</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-1,357,193</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>1,345,804</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9,254,595</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>16,185,412</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>74</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>219,563,722</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8,412,890</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>6,003,791</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6,476,833</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>20,487,298</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-5,486,564</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-28,708,925</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>19,452,595</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>254,729,840</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>151,966,255</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>500,513,476</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>23</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,289,792</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>417,365</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>100,198</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>89,461</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>129,748</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-107,546</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-143,342</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>24,236</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,038,889</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,167,451</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,203,755</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>145,074</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>70,878</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-135,459</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-122,067</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-53,952</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-42,273</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-83,021</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>568,854</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-8.88</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-6.26</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>483,007</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>1,883,521</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,314,394</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,237,064</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>339,240</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>268,348</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>822,022</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,211,426</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>513,254</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-316,629</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>15,159,984</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>16,118,201</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>32,536,508</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>370</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10,097,123</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,251,376</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>295,894</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,279,973</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>17,896</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1,678,734</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-24,081</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>15,625,292</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,843,227</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>37,195,890</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,011,704</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>320,333</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>192,701</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>155,281</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>69,008</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-337,759</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-70,186</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-266,530</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,829,711</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,017,755</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,171,552</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>35,178,947</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1,901,002</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>606,572</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>412,030</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,070,188</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-4,357,462</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>484,446</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-790,871</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>121,190,063</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>91,603,828</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>180,163,988</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,062,877</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>84,533</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>40,973</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-15,559</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>439,771</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-651,965</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>107,037</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-688,310</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>20,375,067</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>25,550,726</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>28,714,678</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>58,576,151</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,598,067</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4,200,907</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6,458,594</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10,748,890</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-9,240,179</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>5,689,447</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>3,279,631</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>245,916,260</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>128,611,541</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>497,225,796</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>276,623</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>28,473</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>11,161</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8,291</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>17,618</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>90,897</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-105,381</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-8,912</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,350,600</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,752,763</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,514,219</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>490,033</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>145,532</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>58,218</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>40,424</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>43,099</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-36,789</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>11,260</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>8,926</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>411,716</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>527,322</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,662,408</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>35,869,351</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8,207,099</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2,916,757</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3,325,726</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>7,680,882</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-7,032,376</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-4,422,850</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-203,975</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>88,685,690</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>157,001,865</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>303,798,431</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>43</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,492,176</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>454,317</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>259,354</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>173,258</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>330,666</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-77,778</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-214,031</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>191,788</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,535,133</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,477,411</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>9,899,046</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>439,530</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>84,829</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>15,430</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>13,680</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>22,697</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-22,404</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-7,987</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-22,087</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>523,762</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,414,718</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,420,584</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,126,273</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,307,123</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>825,404</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>782,749</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,338,151</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,720,047</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-268,290</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-1,407,011</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>17,548,838</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>22,760,412</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>38,883,291</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>77,931,683</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,779,733</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,100,797</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,214,289</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-445,516</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>641,078</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1,846,366</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-824,081</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>83,023,736</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,243,161</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>124,755,601</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>40</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6,153,798</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1,020,464</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>40,844</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>21,655</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>583,336</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-29,459</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-338,611</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>525,337</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,400,900</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2,532,326</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,105,285</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,130,115</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>877,687</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>311,279</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>313,969</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>155,549</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-140,080</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>258,752</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-103,497</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15,161,899</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,613,469</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24,562,134</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5,791,927</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>311,081</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>103,770</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>72,151</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-103,293</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-6,012</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-157,815</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-108,108</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4,345,193</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>196,392</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>6,003,505</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>835,686</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>336,440</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>105,354</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>63,678</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>169,015</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-57,110</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-81,179</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>121,117</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>3,147,342</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,509,345</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,884,919</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>676,788</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>155,756</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-42,393</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-67,435</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>44,459</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-53,605</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>106,374</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>17,190</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4,919,862</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,226,778</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9,638,094</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>352</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,529,162</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>526,717</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>296,175</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>228,082</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>191,285</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-169,601</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-20,999</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-63,431</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4,408,599</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2,990,193</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,471,736</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>282,330</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>34,781</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-45,521</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-46,774</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>333,168</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-417,712</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>44,551</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>289,259</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>808,098</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-2.18</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-1.52</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>396,434</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2,926,208</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>11,899,200</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2,481,271</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,246,968</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>715,123</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,679,541</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-539,005</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1,042,485</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,138,465</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>12,348,731</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>10,478,256</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>22,284,083</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>241</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15,138,048</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,585,235</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,539,470</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>861,905</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2,409,884</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-1,445,154</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-1,334,829</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2,049,132</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>26,860,617</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,469,372</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>43,957,642</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>14,236,090</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,590,988</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,351,181</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,567,881</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,920,255</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>59,149</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-518,575</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,120,196</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>32,492,499</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,699,310</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>81,619,261</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>835,625</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>88,821</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-8,345</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-7,567</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>121,040</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>10,883</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-51,620</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>114,023</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1,903,858</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,000,137</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,536,431</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,128,943</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,030,054</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>320,877</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>294,753</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>752,857</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-365,126</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-411,221</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>575,597</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,784,639</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,506,569</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>33,379,745</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>201,870,079</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,869,321</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,883,691</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,481,011</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>11,503,591</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-2,708,359</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>488,269</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>9,551,561</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>251,538,942</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>22,775,265</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>346,111,741</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>105,197,082</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>15,423,551</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4,782,179</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,861,762</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>5,585,542</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-508,205</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-946,047</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>5,392,237</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>171,868,163</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,892,346</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>315,456,533</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>33,360,918</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,807,985</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>744,733</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>954,568</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-1,789,840</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-461,574</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-1,454,041</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-1,733,291</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>70,582,096</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,475,599</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>98,344,880</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>225</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9,278,013</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,717,307</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,511,668</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,208,583</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,248,230</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-1,170,827</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>9,468</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>858,904</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>11,556,135</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>8,497,625</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>30,921,207</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12,468,181</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,189,338</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>403,379</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>493,566</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>328,947</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1,305,090</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-1,845,077</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>299,048</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13,191,248</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,224,754</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>34,254,978</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>137,998</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>34,646</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-1,391</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-6,155</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-7,413</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-12,087</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-7,413</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>373,859</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>-0.86</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>5,625</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,061,732</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,316,922</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>184,662</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>72,974</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>64,706</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-9,296</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-176</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-24,502</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-15,650</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,444,557</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>372,521</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,188,390</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>296,772</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>270,889</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>74,700</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>52,707</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>118,402</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-33,311</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>117,183</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>386,001</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>35,708</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,963,172</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
